--- a/03 Results/03.2 Tables/Table 2_sample means of evaluation sample_edited_20240912.xlsx
+++ b/03 Results/03.2 Tables/Table 2_sample means of evaluation sample_edited_20240912.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\domin\GitHub\IE_PSM_dummy\03 Results\03.2 Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{93D1034E-837B-42EA-95E7-562A6F35A994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{013681FF-0AEB-446C-AF3B-CF0B14F2FC72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{622E8C24-BDC1-4C7D-8068-B40FFBD108E7}"/>
   </bookViews>
@@ -16,12 +16,25 @@
     <sheet name="Sample means of evaluation samp" sheetId="1" r:id="rId1"/>
     <sheet name="Edited" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="46">
   <si>
     <t>IP</t>
   </si>
@@ -165,6 +178,9 @@
   </si>
   <si>
     <t>Average income (XYZ)</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -488,7 +504,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -631,15 +647,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -653,15 +660,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top/>
       <bottom style="thin">
@@ -725,19 +723,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -751,10 +743,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1132,10 +1124,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D73046E-DF39-40D5-93D9-BEA71B1C317C}">
-  <dimension ref="A1:W21"/>
+  <dimension ref="A1:W25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection sqref="A1:W25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1219,40 +1211,40 @@
         <v>24</v>
       </c>
       <c r="C2">
-        <v>0.41</v>
+        <v>0.74</v>
       </c>
       <c r="D2">
-        <v>0.04</v>
+        <v>0.26</v>
       </c>
       <c r="E2">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>40.72</v>
+        <v>40.36</v>
       </c>
       <c r="G2">
-        <v>0.27</v>
+        <v>0.23</v>
       </c>
       <c r="H2">
-        <v>7.0000000000000007E-2</v>
+        <v>0.08</v>
       </c>
       <c r="I2">
         <v>0.7</v>
       </c>
       <c r="J2">
-        <v>2.6</v>
+        <v>2.23</v>
       </c>
       <c r="K2">
-        <v>0.45</v>
+        <v>0.36</v>
       </c>
       <c r="L2">
-        <v>0.06</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="M2">
         <v>0.25</v>
       </c>
       <c r="N2">
-        <v>0.21</v>
+        <v>0.26</v>
       </c>
       <c r="O2">
         <v>0.33</v>
@@ -1279,7 +1271,7 @@
         <v>0.35</v>
       </c>
       <c r="W2">
-        <v>417.83</v>
+        <v>528.64</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
@@ -1290,40 +1282,40 @@
         <v>24</v>
       </c>
       <c r="C3">
-        <v>0.49</v>
+        <v>0.44</v>
       </c>
       <c r="D3">
-        <v>0.2</v>
+        <v>0.44</v>
       </c>
       <c r="E3">
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
       <c r="F3">
-        <v>11.82</v>
+        <v>11.79</v>
       </c>
       <c r="G3">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="H3">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="I3">
         <v>0.46</v>
       </c>
       <c r="J3">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="K3">
-        <v>0.5</v>
+        <v>0.48</v>
       </c>
       <c r="L3">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="M3">
         <v>0.43</v>
       </c>
       <c r="N3">
-        <v>0.41</v>
+        <v>0.44</v>
       </c>
       <c r="O3">
         <v>0.47</v>
@@ -1350,7 +1342,7 @@
         <v>0.48</v>
       </c>
       <c r="W3">
-        <v>173.64</v>
+        <v>220.07</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
@@ -1361,40 +1353,40 @@
         <v>25</v>
       </c>
       <c r="C4">
-        <v>0.17</v>
+        <v>0.48</v>
       </c>
       <c r="D4">
+        <v>0.52</v>
+      </c>
+      <c r="E4">
         <v>0</v>
       </c>
-      <c r="E4">
-        <v>0.01</v>
-      </c>
       <c r="F4">
-        <v>44.52</v>
+        <v>45.59</v>
       </c>
       <c r="G4">
-        <v>0.26</v>
+        <v>0.24</v>
       </c>
       <c r="H4">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="I4">
         <v>0.68</v>
       </c>
       <c r="J4">
-        <v>3.03</v>
+        <v>3.13</v>
       </c>
       <c r="K4">
-        <v>0.65</v>
+        <v>0.79</v>
       </c>
       <c r="L4">
         <v>0.1</v>
       </c>
       <c r="M4">
-        <v>0.16</v>
+        <v>0.1</v>
       </c>
       <c r="N4">
-        <v>7.0000000000000007E-2</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0.19</v>
@@ -1421,7 +1413,7 @@
         <v>0.22</v>
       </c>
       <c r="W4">
-        <v>367.73</v>
+        <v>365.06</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
@@ -1432,40 +1424,40 @@
         <v>25</v>
       </c>
       <c r="C5">
-        <v>0.37</v>
+        <v>0.5</v>
       </c>
       <c r="D5">
-        <v>7.0000000000000007E-2</v>
+        <v>0.5</v>
       </c>
       <c r="E5">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>12.35</v>
+        <v>12.42</v>
       </c>
       <c r="G5">
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
       <c r="H5">
-        <v>0.28000000000000003</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="I5">
         <v>0.47</v>
       </c>
       <c r="J5">
-        <v>1.79</v>
+        <v>1.65</v>
       </c>
       <c r="K5">
-        <v>0.48</v>
+        <v>0.41</v>
       </c>
       <c r="L5">
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
       <c r="M5">
-        <v>0.37</v>
+        <v>0.31</v>
       </c>
       <c r="N5">
-        <v>0.26</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="O5">
         <v>0.39</v>
@@ -1492,7 +1484,7 @@
         <v>0.41</v>
       </c>
       <c r="W5">
-        <v>141.63999999999999</v>
+        <v>78.83</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
@@ -1503,31 +1495,31 @@
         <v>24</v>
       </c>
       <c r="C6">
-        <v>0.6</v>
+        <v>0.81</v>
       </c>
       <c r="D6">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="E6">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="F6">
-        <v>38.75</v>
+        <v>37.61</v>
       </c>
       <c r="G6">
         <v>0.28999999999999998</v>
       </c>
       <c r="H6">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="I6">
         <v>0.92</v>
       </c>
       <c r="J6">
-        <v>2.11</v>
+        <v>1.81</v>
       </c>
       <c r="K6">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="L6">
         <v>7.0000000000000007E-2</v>
@@ -1536,7 +1528,7 @@
         <v>0.31</v>
       </c>
       <c r="N6">
-        <v>0.35</v>
+        <v>0.32</v>
       </c>
       <c r="O6">
         <v>0.3</v>
@@ -1563,7 +1555,7 @@
         <v>0.38</v>
       </c>
       <c r="W6">
-        <v>503.38</v>
+        <v>619.87</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
@@ -1574,22 +1566,22 @@
         <v>24</v>
       </c>
       <c r="C7">
-        <v>0.49</v>
+        <v>0.39</v>
       </c>
       <c r="D7">
-        <v>0.26</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E7">
-        <v>0.09</v>
+        <v>0.3</v>
       </c>
       <c r="F7">
-        <v>10.11</v>
+        <v>9.92</v>
       </c>
       <c r="G7">
-        <v>0.46</v>
+        <v>0.45</v>
       </c>
       <c r="H7">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="I7">
         <v>0.28000000000000003</v>
@@ -1598,16 +1590,16 @@
         <v>1.81</v>
       </c>
       <c r="K7">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="L7">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="M7">
         <v>0.46</v>
       </c>
       <c r="N7">
-        <v>0.48</v>
+        <v>0.47</v>
       </c>
       <c r="O7">
         <v>0.46</v>
@@ -1634,7 +1626,7 @@
         <v>0.48</v>
       </c>
       <c r="W7">
-        <v>183.09</v>
+        <v>230.45</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
@@ -1645,40 +1637,40 @@
         <v>25</v>
       </c>
       <c r="C8">
-        <v>0.28999999999999998</v>
+        <v>0.68</v>
       </c>
       <c r="D8">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="F8">
-        <v>36.97</v>
+        <v>38.28</v>
       </c>
       <c r="G8">
         <v>0.18</v>
       </c>
       <c r="H8">
-        <v>0.11</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="I8">
         <v>0.94</v>
       </c>
       <c r="J8">
-        <v>1.92</v>
+        <v>2.31</v>
       </c>
       <c r="K8">
-        <v>0.25</v>
+        <v>0.42</v>
       </c>
       <c r="L8">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="M8">
-        <v>0.23</v>
+        <v>0.17</v>
       </c>
       <c r="N8">
-        <v>0.38</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="O8">
         <v>0.22</v>
@@ -1705,7 +1697,7 @@
         <v>0.26</v>
       </c>
       <c r="W8">
-        <v>480.35</v>
+        <v>476.06</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
@@ -1716,40 +1708,40 @@
         <v>25</v>
       </c>
       <c r="C9">
-        <v>0.46</v>
+        <v>0.47</v>
       </c>
       <c r="D9">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="F9">
-        <v>8.8699999999999992</v>
+        <v>7.7</v>
       </c>
       <c r="G9">
         <v>0.39</v>
       </c>
       <c r="H9">
-        <v>0.31</v>
+        <v>0.35</v>
       </c>
       <c r="I9">
         <v>0.24</v>
       </c>
       <c r="J9">
-        <v>1.24</v>
+        <v>1</v>
       </c>
       <c r="K9">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="L9">
-        <v>0.27</v>
+        <v>0.24</v>
       </c>
       <c r="M9">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="N9">
-        <v>0.49</v>
+        <v>0.46</v>
       </c>
       <c r="O9">
         <v>0.41</v>
@@ -1776,7 +1768,7 @@
         <v>0.44</v>
       </c>
       <c r="W9">
-        <v>161.31</v>
+        <v>167.54</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
@@ -1787,16 +1779,16 @@
         <v>24</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>36.700000000000003</v>
+        <v>36.61</v>
       </c>
       <c r="G10">
         <v>0.24</v>
@@ -1808,7 +1800,7 @@
         <v>0.11</v>
       </c>
       <c r="J10">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="K10">
         <v>0.33</v>
@@ -1817,10 +1809,10 @@
         <v>0.34</v>
       </c>
       <c r="M10">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="N10">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="O10">
         <v>0.32</v>
@@ -1847,7 +1839,7 @@
         <v>0.34</v>
       </c>
       <c r="W10">
-        <v>274.39999999999998</v>
+        <v>310.36</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
@@ -1858,16 +1850,16 @@
         <v>24</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.49</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.49</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>9.6</v>
+        <v>9.43</v>
       </c>
       <c r="G11">
         <v>0.43</v>
@@ -1879,7 +1871,7 @@
         <v>0.32</v>
       </c>
       <c r="J11">
-        <v>1.1299999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="K11">
         <v>0.47</v>
@@ -1888,10 +1880,10 @@
         <v>0.47</v>
       </c>
       <c r="M11">
-        <v>0.43</v>
+        <v>0.42</v>
       </c>
       <c r="N11">
-        <v>0.28000000000000003</v>
+        <v>0.3</v>
       </c>
       <c r="O11">
         <v>0.47</v>
@@ -1918,7 +1910,7 @@
         <v>0.47</v>
       </c>
       <c r="W11">
-        <v>110.48</v>
+        <v>129.4</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
@@ -1929,16 +1921,16 @@
         <v>25</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>0.64</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>35.86</v>
+        <v>35.81</v>
       </c>
       <c r="G12">
         <v>0.28999999999999998</v>
@@ -1959,7 +1951,7 @@
         <v>0.42</v>
       </c>
       <c r="M12">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="N12">
         <v>0.12</v>
@@ -1989,7 +1981,7 @@
         <v>0.11</v>
       </c>
       <c r="W12">
-        <v>296.62</v>
+        <v>324.49</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
@@ -2000,19 +1992,19 @@
         <v>25</v>
       </c>
       <c r="C13">
-        <v>0.05</v>
+        <v>0.48</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>9.7100000000000009</v>
+        <v>9.77</v>
       </c>
       <c r="G13">
-        <v>0.46</v>
+        <v>0.45</v>
       </c>
       <c r="H13">
         <v>0.38</v>
@@ -2060,7 +2052,7 @@
         <v>0.31</v>
       </c>
       <c r="W13">
-        <v>114.64</v>
+        <v>120.07</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.3">
@@ -2071,40 +2063,40 @@
         <v>24</v>
       </c>
       <c r="C14">
-        <v>0.12</v>
+        <v>0.6</v>
       </c>
       <c r="D14">
-        <v>0.01</v>
+        <v>0.4</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>42.23</v>
+        <v>41.62</v>
       </c>
       <c r="G14">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="H14">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="I14">
         <v>0.75</v>
       </c>
       <c r="J14">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="K14">
-        <v>0.71</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="L14">
-        <v>0.1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="M14">
-        <v>7.0000000000000007E-2</v>
+        <v>0.12</v>
       </c>
       <c r="N14">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
       <c r="O14">
         <v>0.33</v>
@@ -2131,7 +2123,7 @@
         <v>0.35</v>
       </c>
       <c r="W14">
-        <v>343.86</v>
+        <v>449.35</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
@@ -2142,40 +2134,40 @@
         <v>24</v>
       </c>
       <c r="C15">
-        <v>0.32</v>
+        <v>0.49</v>
       </c>
       <c r="D15">
-        <v>0.09</v>
+        <v>0.49</v>
       </c>
       <c r="E15">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>10.58</v>
+        <v>11.57</v>
       </c>
       <c r="G15">
-        <v>0.42</v>
+        <v>0.43</v>
       </c>
       <c r="H15">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="I15">
         <v>0.43</v>
       </c>
       <c r="J15">
-        <v>1.08</v>
+        <v>1.35</v>
       </c>
       <c r="K15">
-        <v>0.45</v>
+        <v>0.49</v>
       </c>
       <c r="L15">
-        <v>0.3</v>
+        <v>0.26</v>
       </c>
       <c r="M15">
-        <v>0.25</v>
+        <v>0.32</v>
       </c>
       <c r="N15">
-        <v>0.28000000000000003</v>
+        <v>0.37</v>
       </c>
       <c r="O15">
         <v>0.47</v>
@@ -2202,7 +2194,7 @@
         <v>0.48</v>
       </c>
       <c r="W15">
-        <v>163.01</v>
+        <v>233.85</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
@@ -2213,40 +2205,40 @@
         <v>25</v>
       </c>
       <c r="C16">
-        <v>0.04</v>
+        <v>0.49</v>
       </c>
       <c r="D16">
-        <v>0.01</v>
+        <v>0.51</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>43.67</v>
+        <v>44.85</v>
       </c>
       <c r="G16">
-        <v>0.28000000000000003</v>
+        <v>0.25</v>
       </c>
       <c r="H16">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="I16">
         <v>0.67</v>
       </c>
       <c r="J16">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="K16">
-        <v>0.7</v>
+        <v>0.72</v>
       </c>
       <c r="L16">
         <v>0.12</v>
       </c>
       <c r="M16">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="N16">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="O16">
         <v>0.17</v>
@@ -2273,7 +2265,7 @@
         <v>0.19</v>
       </c>
       <c r="W16">
-        <v>356.77</v>
+        <v>397.18</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.3">
@@ -2284,40 +2276,40 @@
         <v>25</v>
       </c>
       <c r="C17">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="D17">
-        <v>0.09</v>
+        <v>0.5</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>10.55</v>
+        <v>11.1</v>
       </c>
       <c r="G17">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="H17">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="I17">
         <v>0.47</v>
       </c>
       <c r="J17">
-        <v>1.03</v>
+        <v>0.95</v>
       </c>
       <c r="K17">
-        <v>0.46</v>
+        <v>0.45</v>
       </c>
       <c r="L17">
         <v>0.33</v>
       </c>
       <c r="M17">
-        <v>0.28999999999999998</v>
+        <v>0.24</v>
       </c>
       <c r="N17">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="O17">
         <v>0.37</v>
@@ -2344,7 +2336,7 @@
         <v>0.4</v>
       </c>
       <c r="W17">
-        <v>170.63</v>
+        <v>172.39</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.3">
@@ -2355,19 +2347,19 @@
         <v>24</v>
       </c>
       <c r="C18">
-        <v>0.03</v>
+        <v>0.7</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>37.11</v>
+        <v>37.64</v>
       </c>
       <c r="G18">
-        <v>0.51</v>
+        <v>0.49</v>
       </c>
       <c r="H18">
         <v>0.25</v>
@@ -2376,10 +2368,10 @@
         <v>0.69</v>
       </c>
       <c r="J18">
-        <v>2.82</v>
+        <v>2.86</v>
       </c>
       <c r="K18">
-        <v>0.41</v>
+        <v>0.42</v>
       </c>
       <c r="L18">
         <v>0.25</v>
@@ -2415,7 +2407,7 @@
         <v>0.31</v>
       </c>
       <c r="W18">
-        <v>375.93</v>
+        <v>401.35</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.3">
@@ -2426,16 +2418,16 @@
         <v>24</v>
       </c>
       <c r="C19">
-        <v>0.18</v>
+        <v>0.46</v>
       </c>
       <c r="D19">
-        <v>7.0000000000000007E-2</v>
+        <v>0.46</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>12.98</v>
+        <v>13.26</v>
       </c>
       <c r="G19">
         <v>0.5</v>
@@ -2447,7 +2439,7 @@
         <v>0.46</v>
       </c>
       <c r="J19">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="K19">
         <v>0.49</v>
@@ -2486,7 +2478,7 @@
         <v>0.46</v>
       </c>
       <c r="W19">
-        <v>203.79</v>
+        <v>206.01</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.3">
@@ -2497,16 +2489,16 @@
         <v>25</v>
       </c>
       <c r="C20">
-        <v>0.01</v>
+        <v>0.74</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>37.06</v>
+        <v>37.299999999999997</v>
       </c>
       <c r="G20">
         <v>0.44</v>
@@ -2521,13 +2513,13 @@
         <v>2.88</v>
       </c>
       <c r="K20">
-        <v>0.36</v>
+        <v>0.37</v>
       </c>
       <c r="L20">
         <v>0.28000000000000003</v>
       </c>
       <c r="M20">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="N20">
         <v>0.14000000000000001</v>
@@ -2557,7 +2549,7 @@
         <v>0.19</v>
       </c>
       <c r="W20">
-        <v>378.33</v>
+        <v>425.9</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.3">
@@ -2568,16 +2560,16 @@
         <v>25</v>
       </c>
       <c r="C21">
-        <v>0.1</v>
+        <v>0.44</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>12</v>
+        <v>12.37</v>
       </c>
       <c r="G21">
         <v>0.5</v>
@@ -2598,7 +2590,7 @@
         <v>0.45</v>
       </c>
       <c r="M21">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="N21">
         <v>0.35</v>
@@ -2628,7 +2620,291 @@
         <v>0.39</v>
       </c>
       <c r="W21">
-        <v>176.08</v>
+        <v>178.12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22">
+        <v>0.69</v>
+      </c>
+      <c r="D22">
+        <v>0.3</v>
+      </c>
+      <c r="E22">
+        <v>0.02</v>
+      </c>
+      <c r="F22">
+        <v>39.24</v>
+      </c>
+      <c r="G22">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H22">
+        <v>0.09</v>
+      </c>
+      <c r="I22">
+        <v>0.64</v>
+      </c>
+      <c r="J22">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="K22">
+        <v>0.39</v>
+      </c>
+      <c r="L22">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M22">
+        <v>0.21</v>
+      </c>
+      <c r="N22">
+        <v>0.21</v>
+      </c>
+      <c r="O22">
+        <v>0.32</v>
+      </c>
+      <c r="P22">
+        <v>0.22</v>
+      </c>
+      <c r="Q22">
+        <v>0.46</v>
+      </c>
+      <c r="R22">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="S22">
+        <v>0.23</v>
+      </c>
+      <c r="T22">
+        <v>0.32</v>
+      </c>
+      <c r="U22">
+        <v>0.33</v>
+      </c>
+      <c r="V22">
+        <v>0.35</v>
+      </c>
+      <c r="W22">
+        <v>471.45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23">
+        <v>0.46</v>
+      </c>
+      <c r="D23">
+        <v>0.46</v>
+      </c>
+      <c r="E23">
+        <v>0.13</v>
+      </c>
+      <c r="F23">
+        <v>11.38</v>
+      </c>
+      <c r="G23">
+        <v>0.45</v>
+      </c>
+      <c r="H23">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="I23">
+        <v>0.48</v>
+      </c>
+      <c r="J23">
+        <v>1.69</v>
+      </c>
+      <c r="K23">
+        <v>0.49</v>
+      </c>
+      <c r="L23">
+        <v>0.34</v>
+      </c>
+      <c r="M23">
+        <v>0.41</v>
+      </c>
+      <c r="N23">
+        <v>0.4</v>
+      </c>
+      <c r="O23">
+        <v>0.47</v>
+      </c>
+      <c r="P23">
+        <v>0.41</v>
+      </c>
+      <c r="Q23">
+        <v>0.5</v>
+      </c>
+      <c r="R23">
+        <v>0.49</v>
+      </c>
+      <c r="S23">
+        <v>0.42</v>
+      </c>
+      <c r="T23">
+        <v>0.47</v>
+      </c>
+      <c r="U23">
+        <v>0.47</v>
+      </c>
+      <c r="V23">
+        <v>0.48</v>
+      </c>
+      <c r="W23">
+        <v>233.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24">
+        <v>0.5</v>
+      </c>
+      <c r="D24">
+        <v>0.48</v>
+      </c>
+      <c r="E24">
+        <v>0.02</v>
+      </c>
+      <c r="F24">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="G24">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H24">
+        <v>0.13</v>
+      </c>
+      <c r="I24">
+        <v>0.52</v>
+      </c>
+      <c r="J24">
+        <v>2.31</v>
+      </c>
+      <c r="K24">
+        <v>0.5</v>
+      </c>
+      <c r="L24">
+        <v>0.24</v>
+      </c>
+      <c r="M24">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="N24">
+        <v>0.09</v>
+      </c>
+      <c r="O24">
+        <v>0.18</v>
+      </c>
+      <c r="P24">
+        <v>0.11</v>
+      </c>
+      <c r="Q24">
+        <v>0.7</v>
+      </c>
+      <c r="R24">
+        <v>0.76</v>
+      </c>
+      <c r="S24">
+        <v>0.62</v>
+      </c>
+      <c r="T24">
+        <v>0.17</v>
+      </c>
+      <c r="U24">
+        <v>0.66</v>
+      </c>
+      <c r="V24">
+        <v>0.17</v>
+      </c>
+      <c r="W24">
+        <v>377.12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>0.5</v>
+      </c>
+      <c r="D25">
+        <v>0.5</v>
+      </c>
+      <c r="E25">
+        <v>0.13</v>
+      </c>
+      <c r="F25">
+        <v>11.85</v>
+      </c>
+      <c r="G25">
+        <v>0.45</v>
+      </c>
+      <c r="H25">
+        <v>0.33</v>
+      </c>
+      <c r="I25">
+        <v>0.5</v>
+      </c>
+      <c r="J25">
+        <v>1.48</v>
+      </c>
+      <c r="K25">
+        <v>0.5</v>
+      </c>
+      <c r="L25">
+        <v>0.43</v>
+      </c>
+      <c r="M25">
+        <v>0.35</v>
+      </c>
+      <c r="N25">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="O25">
+        <v>0.39</v>
+      </c>
+      <c r="P25">
+        <v>0.32</v>
+      </c>
+      <c r="Q25">
+        <v>0.46</v>
+      </c>
+      <c r="R25">
+        <v>0.43</v>
+      </c>
+      <c r="S25">
+        <v>0.49</v>
+      </c>
+      <c r="T25">
+        <v>0.37</v>
+      </c>
+      <c r="U25">
+        <v>0.47</v>
+      </c>
+      <c r="V25">
+        <v>0.38</v>
+      </c>
+      <c r="W25">
+        <v>149.71</v>
       </c>
     </row>
   </sheetData>
@@ -2638,10 +2914,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F159B691-2D9E-4939-8CC2-C238B7C30B19}">
-  <dimension ref="A1:O21"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27:L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2701,1042 +2977,1405 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="5">
-        <v>0.41</v>
-      </c>
-      <c r="D2" s="6">
-        <v>0.04</v>
-      </c>
-      <c r="E2" s="6">
-        <v>0.01</v>
-      </c>
-      <c r="F2" s="6">
-        <v>40.72</v>
-      </c>
-      <c r="G2" s="6">
-        <v>0.27</v>
-      </c>
-      <c r="H2" s="6">
+      <c r="C2" s="3">
+        <f>'Sample means of evaluation samp'!C2</f>
+        <v>0.74</v>
+      </c>
+      <c r="D2" s="3">
+        <f>'Sample means of evaluation samp'!D2</f>
+        <v>0.26</v>
+      </c>
+      <c r="E2" s="3">
+        <f>'Sample means of evaluation samp'!E2</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="3">
+        <f>'Sample means of evaluation samp'!F2</f>
+        <v>40.36</v>
+      </c>
+      <c r="G2" s="3">
+        <f>'Sample means of evaluation samp'!G2</f>
+        <v>0.23</v>
+      </c>
+      <c r="H2" s="3">
+        <f>'Sample means of evaluation samp'!H2</f>
+        <v>0.08</v>
+      </c>
+      <c r="I2" s="3">
+        <f>'Sample means of evaluation samp'!I2</f>
+        <v>0.7</v>
+      </c>
+      <c r="J2" s="3">
+        <f>'Sample means of evaluation samp'!J2</f>
+        <v>2.23</v>
+      </c>
+      <c r="K2" s="3">
+        <f>'Sample means of evaluation samp'!K2</f>
+        <v>0.36</v>
+      </c>
+      <c r="L2" s="3">
+        <f>'Sample means of evaluation samp'!L2</f>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I2" s="6">
-        <v>0.7</v>
-      </c>
-      <c r="J2" s="6">
-        <v>2.6</v>
-      </c>
-      <c r="K2" s="6">
-        <v>0.45</v>
-      </c>
-      <c r="L2" s="6">
-        <v>0.06</v>
-      </c>
-      <c r="M2" s="6">
+      <c r="M2" s="3">
+        <f>'Sample means of evaluation samp'!M2</f>
         <v>0.25</v>
       </c>
-      <c r="N2" s="6">
-        <v>0.21</v>
-      </c>
-      <c r="O2" s="7">
-        <v>417.83</v>
+      <c r="N2" s="3">
+        <f>'Sample means of evaluation samp'!N2</f>
+        <v>0.26</v>
+      </c>
+      <c r="O2" s="4">
+        <f>'Sample means of evaluation samp'!W2</f>
+        <v>528.64</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="8" t="str">
+      <c r="A3" s="8"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="5" t="str">
         <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!C3,")")</f>
-        <v>(0.49)</v>
-      </c>
-      <c r="D3" s="9" t="str">
+        <v>(0.44)</v>
+      </c>
+      <c r="D3" s="5" t="str">
         <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!D3,")")</f>
-        <v>(0.2)</v>
-      </c>
-      <c r="E3" s="9" t="str">
+        <v>(0.44)</v>
+      </c>
+      <c r="E3" s="5" t="str">
         <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!E3,")")</f>
-        <v>(0.07)</v>
-      </c>
-      <c r="F3" s="9" t="str">
+        <v>(0.06)</v>
+      </c>
+      <c r="F3" s="5" t="str">
         <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!F3,")")</f>
-        <v>(11.82)</v>
-      </c>
-      <c r="G3" s="9" t="str">
+        <v>(11.79)</v>
+      </c>
+      <c r="G3" s="5" t="str">
         <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!G3,")")</f>
-        <v>(0.44)</v>
-      </c>
-      <c r="H3" s="9" t="str">
+        <v>(0.42)</v>
+      </c>
+      <c r="H3" s="5" t="str">
         <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!H3,")")</f>
-        <v>(0.26)</v>
-      </c>
-      <c r="I3" s="9" t="str">
+        <v>(0.27)</v>
+      </c>
+      <c r="I3" s="5" t="str">
         <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!I3,")")</f>
         <v>(0.46)</v>
       </c>
-      <c r="J3" s="9" t="str">
+      <c r="J3" s="5" t="str">
         <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!J3,")")</f>
-        <v>(1.92)</v>
-      </c>
-      <c r="K3" s="9" t="str">
+        <v>(1.98)</v>
+      </c>
+      <c r="K3" s="5" t="str">
         <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!K3,")")</f>
-        <v>(0.5)</v>
-      </c>
-      <c r="L3" s="9" t="str">
+        <v>(0.48)</v>
+      </c>
+      <c r="L3" s="5" t="str">
         <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!L3,")")</f>
-        <v>(0.25)</v>
-      </c>
-      <c r="M3" s="9" t="str">
+        <v>(0.26)</v>
+      </c>
+      <c r="M3" s="5" t="str">
         <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!M3,")")</f>
         <v>(0.43)</v>
       </c>
-      <c r="N3" s="9" t="str">
+      <c r="N3" s="5" t="str">
         <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!N3,")")</f>
-        <v>(0.41)</v>
-      </c>
-      <c r="O3" s="10" t="str">
+        <v>(0.44)</v>
+      </c>
+      <c r="O3" s="6" t="str">
         <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!W3,")")</f>
-        <v>(173.64)</v>
+        <v>(220.07)</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="8"/>
+      <c r="B4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="5">
-        <v>0.17</v>
-      </c>
-      <c r="D4" s="6">
+      <c r="C4" s="3">
+        <f>'Sample means of evaluation samp'!C4</f>
+        <v>0.48</v>
+      </c>
+      <c r="D4" s="3">
+        <f>'Sample means of evaluation samp'!D4</f>
+        <v>0.52</v>
+      </c>
+      <c r="E4" s="3">
+        <f>'Sample means of evaluation samp'!E4</f>
         <v>0</v>
       </c>
-      <c r="E4" s="6">
-        <v>0.01</v>
-      </c>
-      <c r="F4" s="6">
-        <v>44.52</v>
-      </c>
-      <c r="G4" s="6">
-        <v>0.26</v>
-      </c>
-      <c r="H4" s="6">
-        <v>0.09</v>
-      </c>
-      <c r="I4" s="6">
+      <c r="F4" s="3">
+        <f>'Sample means of evaluation samp'!F4</f>
+        <v>45.59</v>
+      </c>
+      <c r="G4" s="3">
+        <f>'Sample means of evaluation samp'!G4</f>
+        <v>0.24</v>
+      </c>
+      <c r="H4" s="3">
+        <f>'Sample means of evaluation samp'!H4</f>
+        <v>0.1</v>
+      </c>
+      <c r="I4" s="3">
+        <f>'Sample means of evaluation samp'!I4</f>
         <v>0.68</v>
       </c>
-      <c r="J4" s="6">
-        <v>3.03</v>
-      </c>
-      <c r="K4" s="6">
-        <v>0.65</v>
-      </c>
-      <c r="L4" s="6">
+      <c r="J4" s="3">
+        <f>'Sample means of evaluation samp'!J4</f>
+        <v>3.13</v>
+      </c>
+      <c r="K4" s="3">
+        <f>'Sample means of evaluation samp'!K4</f>
+        <v>0.79</v>
+      </c>
+      <c r="L4" s="3">
+        <f>'Sample means of evaluation samp'!L4</f>
         <v>0.1</v>
       </c>
-      <c r="M4" s="6">
-        <v>0.16</v>
-      </c>
-      <c r="N4" s="6">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="O4" s="7">
-        <v>367.73</v>
+      <c r="M4" s="3">
+        <f>'Sample means of evaluation samp'!M4</f>
+        <v>0.1</v>
+      </c>
+      <c r="N4" s="3">
+        <f>'Sample means of evaluation samp'!N4</f>
+        <v>0</v>
+      </c>
+      <c r="O4" s="4">
+        <f>'Sample means of evaluation samp'!W4</f>
+        <v>365.06</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="8" t="str">
+      <c r="A5" s="8"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="5" t="str">
         <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!C5,")")</f>
-        <v>(0.37)</v>
-      </c>
-      <c r="D5" s="9" t="str">
+        <v>(0.5)</v>
+      </c>
+      <c r="D5" s="5" t="str">
         <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!D5,")")</f>
-        <v>(0.07)</v>
-      </c>
-      <c r="E5" s="9" t="str">
+        <v>(0.5)</v>
+      </c>
+      <c r="E5" s="5" t="str">
         <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!E5,")")</f>
-        <v>(0.09)</v>
-      </c>
-      <c r="F5" s="9" t="str">
+        <v>(0)</v>
+      </c>
+      <c r="F5" s="5" t="str">
         <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!F5,")")</f>
-        <v>(12.35)</v>
-      </c>
-      <c r="G5" s="9" t="str">
+        <v>(12.42)</v>
+      </c>
+      <c r="G5" s="5" t="str">
         <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!G5,")")</f>
-        <v>(0.44)</v>
-      </c>
-      <c r="H5" s="9" t="str">
+        <v>(0.43)</v>
+      </c>
+      <c r="H5" s="5" t="str">
         <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!H5,")")</f>
-        <v>(0.28)</v>
-      </c>
-      <c r="I5" s="9" t="str">
+        <v>(0.29)</v>
+      </c>
+      <c r="I5" s="5" t="str">
         <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!I5,")")</f>
         <v>(0.47)</v>
       </c>
-      <c r="J5" s="9" t="str">
+      <c r="J5" s="5" t="str">
         <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!J5,")")</f>
-        <v>(1.79)</v>
-      </c>
-      <c r="K5" s="9" t="str">
+        <v>(1.65)</v>
+      </c>
+      <c r="K5" s="5" t="str">
         <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!K5,")")</f>
-        <v>(0.48)</v>
-      </c>
-      <c r="L5" s="9" t="str">
+        <v>(0.41)</v>
+      </c>
+      <c r="L5" s="5" t="str">
         <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!L5,")")</f>
+        <v>(0.31)</v>
+      </c>
+      <c r="M5" s="5" t="str">
+        <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!M5,")")</f>
+        <v>(0.31)</v>
+      </c>
+      <c r="N5" s="5" t="str">
+        <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!N5,")")</f>
+        <v>(0.07)</v>
+      </c>
+      <c r="O5" s="6" t="str">
+        <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!W5,")")</f>
+        <v>(78.83)</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="3">
+        <f>'Sample means of evaluation samp'!C6</f>
+        <v>0.81</v>
+      </c>
+      <c r="D6" s="3">
+        <f>'Sample means of evaluation samp'!D6</f>
+        <v>0.09</v>
+      </c>
+      <c r="E6" s="3">
+        <f>'Sample means of evaluation samp'!E6</f>
+        <v>0.1</v>
+      </c>
+      <c r="F6" s="3">
+        <f>'Sample means of evaluation samp'!F6</f>
+        <v>37.61</v>
+      </c>
+      <c r="G6" s="3">
+        <f>'Sample means of evaluation samp'!G6</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H6" s="3">
+        <f>'Sample means of evaluation samp'!H6</f>
+        <v>0.06</v>
+      </c>
+      <c r="I6" s="3">
+        <f>'Sample means of evaluation samp'!I6</f>
+        <v>0.92</v>
+      </c>
+      <c r="J6" s="3">
+        <f>'Sample means of evaluation samp'!J6</f>
+        <v>1.81</v>
+      </c>
+      <c r="K6" s="3">
+        <f>'Sample means of evaluation samp'!K6</f>
+        <v>0.18</v>
+      </c>
+      <c r="L6" s="3">
+        <f>'Sample means of evaluation samp'!L6</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M6" s="3">
+        <f>'Sample means of evaluation samp'!M6</f>
+        <v>0.31</v>
+      </c>
+      <c r="N6" s="3">
+        <f>'Sample means of evaluation samp'!N6</f>
+        <v>0.32</v>
+      </c>
+      <c r="O6" s="4">
+        <f>'Sample means of evaluation samp'!W6</f>
+        <v>619.87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="8"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="5" t="str">
+        <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!C7,")")</f>
+        <v>(0.39)</v>
+      </c>
+      <c r="D7" s="5" t="str">
+        <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!D7,")")</f>
+        <v>(0.29)</v>
+      </c>
+      <c r="E7" s="5" t="str">
+        <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!E7,")")</f>
         <v>(0.3)</v>
       </c>
-      <c r="M5" s="9" t="str">
-        <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!M5,")")</f>
-        <v>(0.37)</v>
-      </c>
-      <c r="N5" s="9" t="str">
-        <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!N5,")")</f>
-        <v>(0.26)</v>
-      </c>
-      <c r="O5" s="10" t="str">
-        <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!W5,")")</f>
-        <v>(141.64)</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="5">
-        <v>0.6</v>
-      </c>
-      <c r="D6" s="6">
-        <v>0.08</v>
-      </c>
-      <c r="E6" s="6">
-        <v>0.01</v>
-      </c>
-      <c r="F6" s="6">
-        <v>38.75</v>
-      </c>
-      <c r="G6" s="6">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="H6" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="I6" s="6">
-        <v>0.92</v>
-      </c>
-      <c r="J6" s="6">
-        <v>2.11</v>
-      </c>
-      <c r="K6" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="L6" s="6">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M6" s="6">
-        <v>0.31</v>
-      </c>
-      <c r="N6" s="6">
-        <v>0.35</v>
-      </c>
-      <c r="O6" s="7">
-        <v>503.38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="8" t="str">
-        <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!C7,")")</f>
-        <v>(0.49)</v>
-      </c>
-      <c r="D7" s="9" t="str">
-        <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!D7,")")</f>
-        <v>(0.26)</v>
-      </c>
-      <c r="E7" s="9" t="str">
-        <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!E7,")")</f>
-        <v>(0.09)</v>
-      </c>
-      <c r="F7" s="9" t="str">
+      <c r="F7" s="5" t="str">
         <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!F7,")")</f>
-        <v>(10.11)</v>
-      </c>
-      <c r="G7" s="9" t="str">
+        <v>(9.92)</v>
+      </c>
+      <c r="G7" s="5" t="str">
         <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!G7,")")</f>
-        <v>(0.46)</v>
-      </c>
-      <c r="H7" s="9" t="str">
+        <v>(0.45)</v>
+      </c>
+      <c r="H7" s="5" t="str">
         <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!H7,")")</f>
-        <v>(0.23)</v>
-      </c>
-      <c r="I7" s="9" t="str">
+        <v>(0.24)</v>
+      </c>
+      <c r="I7" s="5" t="str">
         <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!I7,")")</f>
         <v>(0.28)</v>
       </c>
-      <c r="J7" s="9" t="str">
+      <c r="J7" s="5" t="str">
         <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!J7,")")</f>
         <v>(1.81)</v>
       </c>
-      <c r="K7" s="9" t="str">
+      <c r="K7" s="5" t="str">
         <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!K7,")")</f>
-        <v>(0.4)</v>
-      </c>
-      <c r="L7" s="9" t="str">
+        <v>(0.39)</v>
+      </c>
+      <c r="L7" s="5" t="str">
         <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!L7,")")</f>
-        <v>(0.25)</v>
-      </c>
-      <c r="M7" s="9" t="str">
+        <v>(0.26)</v>
+      </c>
+      <c r="M7" s="5" t="str">
         <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!M7,")")</f>
         <v>(0.46)</v>
       </c>
-      <c r="N7" s="9" t="str">
+      <c r="N7" s="5" t="str">
         <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!N7,")")</f>
-        <v>(0.48)</v>
-      </c>
-      <c r="O7" s="10" t="str">
+        <v>(0.47)</v>
+      </c>
+      <c r="O7" s="6" t="str">
         <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!W7,")")</f>
-        <v>(183.09)</v>
+        <v>(230.45)</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4" t="s">
+      <c r="A8" s="8"/>
+      <c r="B8" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="3">
+        <f>'Sample means of evaluation samp'!C8</f>
+        <v>0.68</v>
+      </c>
+      <c r="D8" s="3">
+        <f>'Sample means of evaluation samp'!D8</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="3">
+        <f>'Sample means of evaluation samp'!E8</f>
+        <v>0.32</v>
+      </c>
+      <c r="F8" s="3">
+        <f>'Sample means of evaluation samp'!F8</f>
+        <v>38.28</v>
+      </c>
+      <c r="G8" s="3">
+        <f>'Sample means of evaluation samp'!G8</f>
+        <v>0.18</v>
+      </c>
+      <c r="H8" s="3">
+        <f>'Sample means of evaluation samp'!H8</f>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I8" s="3">
+        <f>'Sample means of evaluation samp'!I8</f>
+        <v>0.94</v>
+      </c>
+      <c r="J8" s="3">
+        <f>'Sample means of evaluation samp'!J8</f>
+        <v>2.31</v>
+      </c>
+      <c r="K8" s="3">
+        <f>'Sample means of evaluation samp'!K8</f>
+        <v>0.42</v>
+      </c>
+      <c r="L8" s="3">
+        <f>'Sample means of evaluation samp'!L8</f>
+        <v>0.06</v>
+      </c>
+      <c r="M8" s="3">
+        <f>'Sample means of evaluation samp'!M8</f>
+        <v>0.17</v>
+      </c>
+      <c r="N8" s="3">
+        <f>'Sample means of evaluation samp'!N8</f>
         <v>0.28999999999999998</v>
       </c>
-      <c r="D8" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="E8" s="6">
-        <v>0</v>
-      </c>
-      <c r="F8" s="6">
-        <v>36.97</v>
-      </c>
-      <c r="G8" s="6">
-        <v>0.18</v>
-      </c>
-      <c r="H8" s="6">
-        <v>0.11</v>
-      </c>
-      <c r="I8" s="6">
-        <v>0.94</v>
-      </c>
-      <c r="J8" s="6">
-        <v>1.92</v>
-      </c>
-      <c r="K8" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="L8" s="6">
-        <v>0.08</v>
-      </c>
-      <c r="M8" s="6">
-        <v>0.23</v>
-      </c>
-      <c r="N8" s="6">
-        <v>0.38</v>
-      </c>
-      <c r="O8" s="7">
-        <v>480.35</v>
+      <c r="O8" s="4">
+        <f>'Sample means of evaluation samp'!W8</f>
+        <v>476.06</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="8" t="str">
+      <c r="A9" s="8"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="5" t="str">
         <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!C9,")")</f>
-        <v>(0.46)</v>
-      </c>
-      <c r="D9" s="9" t="str">
+        <v>(0.47)</v>
+      </c>
+      <c r="D9" s="5" t="str">
         <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!D9,")")</f>
-        <v>(0.21)</v>
-      </c>
-      <c r="E9" s="9" t="str">
+        <v>(0)</v>
+      </c>
+      <c r="E9" s="5" t="str">
         <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!E9,")")</f>
-        <v>(0)</v>
-      </c>
-      <c r="F9" s="9" t="str">
+        <v>(0.47)</v>
+      </c>
+      <c r="F9" s="5" t="str">
         <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!F9,")")</f>
-        <v>(8.87)</v>
-      </c>
-      <c r="G9" s="9" t="str">
+        <v>(7.7)</v>
+      </c>
+      <c r="G9" s="5" t="str">
         <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!G9,")")</f>
         <v>(0.39)</v>
       </c>
-      <c r="H9" s="9" t="str">
+      <c r="H9" s="5" t="str">
         <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!H9,")")</f>
-        <v>(0.31)</v>
-      </c>
-      <c r="I9" s="9" t="str">
+        <v>(0.35)</v>
+      </c>
+      <c r="I9" s="5" t="str">
         <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!I9,")")</f>
         <v>(0.24)</v>
       </c>
-      <c r="J9" s="9" t="str">
+      <c r="J9" s="5" t="str">
         <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!J9,")")</f>
-        <v>(1.24)</v>
-      </c>
-      <c r="K9" s="9" t="str">
+        <v>(1)</v>
+      </c>
+      <c r="K9" s="5" t="str">
         <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!K9,")")</f>
-        <v>(0.43)</v>
-      </c>
-      <c r="L9" s="9" t="str">
+        <v>(0.5)</v>
+      </c>
+      <c r="L9" s="5" t="str">
         <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!L9,")")</f>
-        <v>(0.27)</v>
-      </c>
-      <c r="M9" s="9" t="str">
+        <v>(0.24)</v>
+      </c>
+      <c r="M9" s="5" t="str">
         <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!M9,")")</f>
-        <v>(0.42)</v>
-      </c>
-      <c r="N9" s="9" t="str">
+        <v>(0.38)</v>
+      </c>
+      <c r="N9" s="5" t="str">
         <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!N9,")")</f>
+        <v>(0.46)</v>
+      </c>
+      <c r="O9" s="6" t="str">
+        <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!W9,")")</f>
+        <v>(167.54)</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="3">
+        <f>'Sample means of evaluation samp'!C10</f>
+        <v>0.6</v>
+      </c>
+      <c r="D10" s="3">
+        <f>'Sample means of evaluation samp'!D10</f>
+        <v>0.4</v>
+      </c>
+      <c r="E10" s="3">
+        <f>'Sample means of evaluation samp'!E10</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
+        <f>'Sample means of evaluation samp'!F10</f>
+        <v>36.61</v>
+      </c>
+      <c r="G10" s="3">
+        <f>'Sample means of evaluation samp'!G10</f>
+        <v>0.24</v>
+      </c>
+      <c r="H10" s="3">
+        <f>'Sample means of evaluation samp'!H10</f>
+        <v>0.1</v>
+      </c>
+      <c r="I10" s="3">
+        <f>'Sample means of evaluation samp'!I10</f>
+        <v>0.11</v>
+      </c>
+      <c r="J10" s="3">
+        <f>'Sample means of evaluation samp'!J10</f>
+        <v>1.87</v>
+      </c>
+      <c r="K10" s="3">
+        <f>'Sample means of evaluation samp'!K10</f>
+        <v>0.33</v>
+      </c>
+      <c r="L10" s="3">
+        <f>'Sample means of evaluation samp'!L10</f>
+        <v>0.34</v>
+      </c>
+      <c r="M10" s="3">
+        <f>'Sample means of evaluation samp'!M10</f>
+        <v>0.22</v>
+      </c>
+      <c r="N10" s="3">
+        <f>'Sample means of evaluation samp'!N10</f>
+        <v>0.1</v>
+      </c>
+      <c r="O10" s="4">
+        <f>'Sample means of evaluation samp'!W10</f>
+        <v>310.36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="8"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="5" t="str">
+        <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!C11,")")</f>
         <v>(0.49)</v>
       </c>
-      <c r="O9" s="10" t="str">
-        <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!W9,")")</f>
-        <v>(161.31)</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="5">
-        <v>0</v>
-      </c>
-      <c r="D10" s="6">
-        <v>0</v>
-      </c>
-      <c r="E10" s="6">
-        <v>0</v>
-      </c>
-      <c r="F10" s="6">
-        <v>36.700000000000003</v>
-      </c>
-      <c r="G10" s="6">
-        <v>0.24</v>
-      </c>
-      <c r="H10" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="I10" s="6">
-        <v>0.11</v>
-      </c>
-      <c r="J10" s="6">
-        <v>1.82</v>
-      </c>
-      <c r="K10" s="6">
-        <v>0.33</v>
-      </c>
-      <c r="L10" s="6">
-        <v>0.34</v>
-      </c>
-      <c r="M10" s="6">
-        <v>0.24</v>
-      </c>
-      <c r="N10" s="6">
-        <v>0.09</v>
-      </c>
-      <c r="O10" s="7">
-        <v>274.39999999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="8" t="str">
-        <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!C11,")")</f>
-        <v>(0)</v>
-      </c>
-      <c r="D11" s="9" t="str">
+      <c r="D11" s="5" t="str">
         <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!D11,")")</f>
-        <v>(0)</v>
-      </c>
-      <c r="E11" s="9" t="str">
+        <v>(0.49)</v>
+      </c>
+      <c r="E11" s="5" t="str">
         <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!E11,")")</f>
         <v>(0)</v>
       </c>
-      <c r="F11" s="9" t="str">
+      <c r="F11" s="5" t="str">
         <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!F11,")")</f>
-        <v>(9.6)</v>
-      </c>
-      <c r="G11" s="9" t="str">
+        <v>(9.43)</v>
+      </c>
+      <c r="G11" s="5" t="str">
         <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!G11,")")</f>
         <v>(0.43)</v>
       </c>
-      <c r="H11" s="9" t="str">
+      <c r="H11" s="5" t="str">
         <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!H11,")")</f>
         <v>(0.3)</v>
       </c>
-      <c r="I11" s="9" t="str">
+      <c r="I11" s="5" t="str">
         <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!I11,")")</f>
         <v>(0.32)</v>
       </c>
-      <c r="J11" s="9" t="str">
+      <c r="J11" s="5" t="str">
         <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!J11,")")</f>
-        <v>(1.13)</v>
-      </c>
-      <c r="K11" s="9" t="str">
+        <v>(1.2)</v>
+      </c>
+      <c r="K11" s="5" t="str">
         <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!K11,")")</f>
         <v>(0.47)</v>
       </c>
-      <c r="L11" s="9" t="str">
+      <c r="L11" s="5" t="str">
         <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!L11,")")</f>
         <v>(0.47)</v>
       </c>
-      <c r="M11" s="9" t="str">
+      <c r="M11" s="5" t="str">
         <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!M11,")")</f>
-        <v>(0.43)</v>
-      </c>
-      <c r="N11" s="9" t="str">
+        <v>(0.42)</v>
+      </c>
+      <c r="N11" s="5" t="str">
         <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!N11,")")</f>
-        <v>(0.28)</v>
-      </c>
-      <c r="O11" s="10" t="str">
+        <v>(0.3)</v>
+      </c>
+      <c r="O11" s="6" t="str">
         <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!W11,")")</f>
-        <v>(110.48)</v>
+        <v>(129.4)</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4" t="s">
+      <c r="A12" s="8"/>
+      <c r="B12" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="3">
+        <f>'Sample means of evaluation samp'!C12</f>
+        <v>0.36</v>
+      </c>
+      <c r="D12" s="3">
+        <f>'Sample means of evaluation samp'!D12</f>
+        <v>0.64</v>
+      </c>
+      <c r="E12" s="3">
+        <f>'Sample means of evaluation samp'!E12</f>
         <v>0</v>
       </c>
-      <c r="D12" s="6">
-        <v>0</v>
-      </c>
-      <c r="E12" s="6">
-        <v>0</v>
-      </c>
-      <c r="F12" s="6">
-        <v>35.86</v>
-      </c>
-      <c r="G12" s="6">
+      <c r="F12" s="3">
+        <f>'Sample means of evaluation samp'!F12</f>
+        <v>35.81</v>
+      </c>
+      <c r="G12" s="3">
+        <f>'Sample means of evaluation samp'!G12</f>
         <v>0.28999999999999998</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="3">
+        <f>'Sample means of evaluation samp'!H12</f>
         <v>0.17</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="3">
+        <f>'Sample means of evaluation samp'!I12</f>
         <v>0.15</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="3">
+        <f>'Sample means of evaluation samp'!J12</f>
         <v>1.94</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K12" s="3">
+        <f>'Sample means of evaluation samp'!K12</f>
         <v>0.24</v>
       </c>
-      <c r="L12" s="6">
+      <c r="L12" s="3">
+        <f>'Sample means of evaluation samp'!L12</f>
         <v>0.42</v>
       </c>
-      <c r="M12" s="6">
-        <v>0.22</v>
-      </c>
-      <c r="N12" s="6">
+      <c r="M12" s="3">
+        <f>'Sample means of evaluation samp'!M12</f>
+        <v>0.21</v>
+      </c>
+      <c r="N12" s="3">
+        <f>'Sample means of evaluation samp'!N12</f>
         <v>0.12</v>
       </c>
-      <c r="O12" s="7">
-        <v>296.62</v>
+      <c r="O12" s="4">
+        <f>'Sample means of evaluation samp'!W12</f>
+        <v>324.49</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="8" t="str">
+      <c r="A13" s="8"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="5" t="str">
         <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!C13,")")</f>
-        <v>(0.05)</v>
-      </c>
-      <c r="D13" s="9" t="str">
+        <v>(0.48)</v>
+      </c>
+      <c r="D13" s="5" t="str">
         <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!D13,")")</f>
-        <v>(0)</v>
-      </c>
-      <c r="E13" s="9" t="str">
+        <v>(0.48)</v>
+      </c>
+      <c r="E13" s="5" t="str">
         <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!E13,")")</f>
         <v>(0)</v>
       </c>
-      <c r="F13" s="9" t="str">
+      <c r="F13" s="5" t="str">
         <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!F13,")")</f>
-        <v>(9.71)</v>
-      </c>
-      <c r="G13" s="9" t="str">
+        <v>(9.77)</v>
+      </c>
+      <c r="G13" s="5" t="str">
         <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!G13,")")</f>
-        <v>(0.46)</v>
-      </c>
-      <c r="H13" s="9" t="str">
+        <v>(0.45)</v>
+      </c>
+      <c r="H13" s="5" t="str">
         <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!H13,")")</f>
         <v>(0.38)</v>
       </c>
-      <c r="I13" s="9" t="str">
+      <c r="I13" s="5" t="str">
         <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!I13,")")</f>
         <v>(0.35)</v>
       </c>
-      <c r="J13" s="9" t="str">
+      <c r="J13" s="5" t="str">
         <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!J13,")")</f>
         <v>(1.22)</v>
       </c>
-      <c r="K13" s="9" t="str">
+      <c r="K13" s="5" t="str">
         <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!K13,")")</f>
         <v>(0.43)</v>
       </c>
-      <c r="L13" s="9" t="str">
+      <c r="L13" s="5" t="str">
         <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!L13,")")</f>
         <v>(0.49)</v>
       </c>
-      <c r="M13" s="9" t="str">
+      <c r="M13" s="5" t="str">
         <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!M13,")")</f>
         <v>(0.41)</v>
       </c>
-      <c r="N13" s="9" t="str">
+      <c r="N13" s="5" t="str">
         <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!N13,")")</f>
         <v>(0.32)</v>
       </c>
-      <c r="O13" s="10" t="str">
+      <c r="O13" s="6" t="str">
         <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!W13,")")</f>
-        <v>(114.64)</v>
+        <v>(120.07)</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="3">
+        <f>'Sample means of evaluation samp'!C14</f>
+        <v>0.6</v>
+      </c>
+      <c r="D14" s="3">
+        <f>'Sample means of evaluation samp'!D14</f>
+        <v>0.4</v>
+      </c>
+      <c r="E14" s="3">
+        <f>'Sample means of evaluation samp'!E14</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <f>'Sample means of evaluation samp'!F14</f>
+        <v>41.62</v>
+      </c>
+      <c r="G14" s="3">
+        <f>'Sample means of evaluation samp'!G14</f>
+        <v>0.25</v>
+      </c>
+      <c r="H14" s="3">
+        <f>'Sample means of evaluation samp'!H14</f>
+        <v>0.04</v>
+      </c>
+      <c r="I14" s="3">
+        <f>'Sample means of evaluation samp'!I14</f>
+        <v>0.75</v>
+      </c>
+      <c r="J14" s="3">
+        <f>'Sample means of evaluation samp'!J14</f>
+        <v>1.78</v>
+      </c>
+      <c r="K14" s="3">
+        <f>'Sample means of evaluation samp'!K14</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="L14" s="3">
+        <f>'Sample means of evaluation samp'!L14</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M14" s="3">
+        <f>'Sample means of evaluation samp'!M14</f>
         <v>0.12</v>
       </c>
-      <c r="D14" s="6">
-        <v>0.01</v>
-      </c>
-      <c r="E14" s="6">
-        <v>0</v>
-      </c>
-      <c r="F14" s="6">
-        <v>42.23</v>
-      </c>
-      <c r="G14" s="6">
-        <v>0.24</v>
-      </c>
-      <c r="H14" s="6">
-        <v>0.03</v>
-      </c>
-      <c r="I14" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="J14" s="6">
-        <v>1.82</v>
-      </c>
-      <c r="K14" s="6">
-        <v>0.71</v>
-      </c>
-      <c r="L14" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="M14" s="6">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="N14" s="6">
-        <v>0.08</v>
-      </c>
-      <c r="O14" s="7">
-        <v>343.86</v>
+      <c r="N14" s="3">
+        <f>'Sample means of evaluation samp'!N14</f>
+        <v>0.17</v>
+      </c>
+      <c r="O14" s="4">
+        <f>'Sample means of evaluation samp'!W14</f>
+        <v>449.35</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="8" t="str">
+      <c r="A15" s="8"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="5" t="str">
         <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!C15,")")</f>
-        <v>(0.32)</v>
-      </c>
-      <c r="D15" s="9" t="str">
+        <v>(0.49)</v>
+      </c>
+      <c r="D15" s="5" t="str">
         <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!D15,")")</f>
-        <v>(0.09)</v>
-      </c>
-      <c r="E15" s="9" t="str">
+        <v>(0.49)</v>
+      </c>
+      <c r="E15" s="5" t="str">
         <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!E15,")")</f>
-        <v>(0.06)</v>
-      </c>
-      <c r="F15" s="9" t="str">
+        <v>(0)</v>
+      </c>
+      <c r="F15" s="5" t="str">
         <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!F15,")")</f>
-        <v>(10.58)</v>
-      </c>
-      <c r="G15" s="9" t="str">
+        <v>(11.57)</v>
+      </c>
+      <c r="G15" s="5" t="str">
         <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!G15,")")</f>
-        <v>(0.42)</v>
-      </c>
-      <c r="H15" s="9" t="str">
+        <v>(0.43)</v>
+      </c>
+      <c r="H15" s="5" t="str">
         <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!H15,")")</f>
-        <v>(0.18)</v>
-      </c>
-      <c r="I15" s="9" t="str">
+        <v>(0.2)</v>
+      </c>
+      <c r="I15" s="5" t="str">
         <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!I15,")")</f>
         <v>(0.43)</v>
       </c>
-      <c r="J15" s="9" t="str">
+      <c r="J15" s="5" t="str">
         <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!J15,")")</f>
-        <v>(1.08)</v>
-      </c>
-      <c r="K15" s="9" t="str">
+        <v>(1.35)</v>
+      </c>
+      <c r="K15" s="5" t="str">
         <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!K15,")")</f>
-        <v>(0.45)</v>
-      </c>
-      <c r="L15" s="9" t="str">
+        <v>(0.49)</v>
+      </c>
+      <c r="L15" s="5" t="str">
         <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!L15,")")</f>
-        <v>(0.3)</v>
-      </c>
-      <c r="M15" s="9" t="str">
+        <v>(0.26)</v>
+      </c>
+      <c r="M15" s="5" t="str">
         <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!M15,")")</f>
-        <v>(0.25)</v>
-      </c>
-      <c r="N15" s="9" t="str">
+        <v>(0.32)</v>
+      </c>
+      <c r="N15" s="5" t="str">
         <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!N15,")")</f>
-        <v>(0.28)</v>
-      </c>
-      <c r="O15" s="10" t="str">
+        <v>(0.37)</v>
+      </c>
+      <c r="O15" s="6" t="str">
         <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!W15,")")</f>
-        <v>(163.01)</v>
+        <v>(233.85)</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
-      <c r="B16" s="4" t="s">
+      <c r="A16" s="8"/>
+      <c r="B16" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="5">
-        <v>0.04</v>
-      </c>
-      <c r="D16" s="6">
-        <v>0.01</v>
-      </c>
-      <c r="E16" s="6">
+      <c r="C16" s="3">
+        <f>'Sample means of evaluation samp'!C16</f>
+        <v>0.49</v>
+      </c>
+      <c r="D16" s="3">
+        <f>'Sample means of evaluation samp'!D16</f>
+        <v>0.51</v>
+      </c>
+      <c r="E16" s="3">
+        <f>'Sample means of evaluation samp'!E16</f>
         <v>0</v>
       </c>
-      <c r="F16" s="6">
-        <v>43.67</v>
-      </c>
-      <c r="G16" s="6">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="H16" s="6">
-        <v>0.04</v>
-      </c>
-      <c r="I16" s="6">
+      <c r="F16" s="3">
+        <f>'Sample means of evaluation samp'!F16</f>
+        <v>44.85</v>
+      </c>
+      <c r="G16" s="3">
+        <f>'Sample means of evaluation samp'!G16</f>
+        <v>0.25</v>
+      </c>
+      <c r="H16" s="3">
+        <f>'Sample means of evaluation samp'!H16</f>
+        <v>0.03</v>
+      </c>
+      <c r="I16" s="3">
+        <f>'Sample means of evaluation samp'!I16</f>
         <v>0.67</v>
       </c>
-      <c r="J16" s="6">
-        <v>1.74</v>
-      </c>
-      <c r="K16" s="6">
-        <v>0.7</v>
-      </c>
-      <c r="L16" s="6">
+      <c r="J16" s="3">
+        <f>'Sample means of evaluation samp'!J16</f>
+        <v>1.73</v>
+      </c>
+      <c r="K16" s="3">
+        <f>'Sample means of evaluation samp'!K16</f>
+        <v>0.72</v>
+      </c>
+      <c r="L16" s="3">
+        <f>'Sample means of evaluation samp'!L16</f>
         <v>0.12</v>
       </c>
-      <c r="M16" s="6">
-        <v>0.09</v>
-      </c>
-      <c r="N16" s="6">
-        <v>0.04</v>
-      </c>
-      <c r="O16" s="7">
-        <v>356.77</v>
+      <c r="M16" s="3">
+        <f>'Sample means of evaluation samp'!M16</f>
+        <v>0.06</v>
+      </c>
+      <c r="N16" s="3">
+        <f>'Sample means of evaluation samp'!N16</f>
+        <v>0.03</v>
+      </c>
+      <c r="O16" s="4">
+        <f>'Sample means of evaluation samp'!W16</f>
+        <v>397.18</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="8" t="str">
+      <c r="A17" s="8"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="5" t="str">
         <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!C17,")")</f>
-        <v>(0.2)</v>
-      </c>
-      <c r="D17" s="9" t="str">
+        <v>(0.5)</v>
+      </c>
+      <c r="D17" s="5" t="str">
         <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!D17,")")</f>
-        <v>(0.09)</v>
-      </c>
-      <c r="E17" s="9" t="str">
+        <v>(0.5)</v>
+      </c>
+      <c r="E17" s="5" t="str">
         <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!E17,")")</f>
         <v>(0)</v>
       </c>
-      <c r="F17" s="9" t="str">
+      <c r="F17" s="5" t="str">
         <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!F17,")")</f>
-        <v>(10.55)</v>
-      </c>
-      <c r="G17" s="9" t="str">
+        <v>(11.1)</v>
+      </c>
+      <c r="G17" s="5" t="str">
         <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!G17,")")</f>
-        <v>(0.45)</v>
-      </c>
-      <c r="H17" s="9" t="str">
+        <v>(0.43)</v>
+      </c>
+      <c r="H17" s="5" t="str">
         <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!H17,")")</f>
-        <v>(0.19)</v>
-      </c>
-      <c r="I17" s="9" t="str">
+        <v>(0.18)</v>
+      </c>
+      <c r="I17" s="5" t="str">
         <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!I17,")")</f>
         <v>(0.47)</v>
       </c>
-      <c r="J17" s="9" t="str">
+      <c r="J17" s="5" t="str">
         <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!J17,")")</f>
-        <v>(1.03)</v>
-      </c>
-      <c r="K17" s="9" t="str">
+        <v>(0.95)</v>
+      </c>
+      <c r="K17" s="5" t="str">
         <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!K17,")")</f>
-        <v>(0.46)</v>
-      </c>
-      <c r="L17" s="9" t="str">
+        <v>(0.45)</v>
+      </c>
+      <c r="L17" s="5" t="str">
         <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!L17,")")</f>
         <v>(0.33)</v>
       </c>
-      <c r="M17" s="9" t="str">
+      <c r="M17" s="5" t="str">
         <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!M17,")")</f>
-        <v>(0.29)</v>
-      </c>
-      <c r="N17" s="9" t="str">
+        <v>(0.24)</v>
+      </c>
+      <c r="N17" s="5" t="str">
         <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!N17,")")</f>
-        <v>(0.19)</v>
-      </c>
-      <c r="O17" s="10" t="str">
+        <v>(0.18)</v>
+      </c>
+      <c r="O17" s="6" t="str">
         <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!W17,")")</f>
-        <v>(170.63)</v>
+        <v>(172.39)</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="5">
-        <v>0.03</v>
-      </c>
-      <c r="D18" s="6">
+      <c r="C18" s="3">
+        <f>'Sample means of evaluation samp'!C18</f>
+        <v>0.7</v>
+      </c>
+      <c r="D18" s="3">
+        <f>'Sample means of evaluation samp'!D18</f>
+        <v>0.3</v>
+      </c>
+      <c r="E18" s="3">
+        <f>'Sample means of evaluation samp'!E18</f>
         <v>0</v>
       </c>
-      <c r="E18" s="6">
-        <v>0</v>
-      </c>
-      <c r="F18" s="6">
-        <v>37.11</v>
-      </c>
-      <c r="G18" s="6">
-        <v>0.51</v>
-      </c>
-      <c r="H18" s="6">
+      <c r="F18" s="3">
+        <f>'Sample means of evaluation samp'!F18</f>
+        <v>37.64</v>
+      </c>
+      <c r="G18" s="3">
+        <f>'Sample means of evaluation samp'!G18</f>
+        <v>0.49</v>
+      </c>
+      <c r="H18" s="3">
+        <f>'Sample means of evaluation samp'!H18</f>
         <v>0.25</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I18" s="3">
+        <f>'Sample means of evaluation samp'!I18</f>
         <v>0.69</v>
       </c>
-      <c r="J18" s="6">
-        <v>2.82</v>
-      </c>
-      <c r="K18" s="6">
-        <v>0.41</v>
-      </c>
-      <c r="L18" s="6">
+      <c r="J18" s="3">
+        <f>'Sample means of evaluation samp'!J18</f>
+        <v>2.86</v>
+      </c>
+      <c r="K18" s="3">
+        <f>'Sample means of evaluation samp'!K18</f>
+        <v>0.42</v>
+      </c>
+      <c r="L18" s="3">
+        <f>'Sample means of evaluation samp'!L18</f>
         <v>0.25</v>
       </c>
-      <c r="M18" s="6">
+      <c r="M18" s="3">
+        <f>'Sample means of evaluation samp'!M18</f>
         <v>0.14000000000000001</v>
       </c>
-      <c r="N18" s="6">
+      <c r="N18" s="3">
+        <f>'Sample means of evaluation samp'!N18</f>
         <v>0.13</v>
       </c>
-      <c r="O18" s="7">
-        <v>375.93</v>
+      <c r="O18" s="4">
+        <f>'Sample means of evaluation samp'!W18</f>
+        <v>401.35</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19" s="3"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="8" t="str">
+      <c r="A19" s="8"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="5" t="str">
         <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!C19,")")</f>
-        <v>(0.18)</v>
-      </c>
-      <c r="D19" s="9" t="str">
+        <v>(0.46)</v>
+      </c>
+      <c r="D19" s="5" t="str">
         <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!D19,")")</f>
-        <v>(0.07)</v>
-      </c>
-      <c r="E19" s="9" t="str">
+        <v>(0.46)</v>
+      </c>
+      <c r="E19" s="5" t="str">
         <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!E19,")")</f>
         <v>(0)</v>
       </c>
-      <c r="F19" s="9" t="str">
+      <c r="F19" s="5" t="str">
         <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!F19,")")</f>
-        <v>(12.98)</v>
-      </c>
-      <c r="G19" s="9" t="str">
+        <v>(13.26)</v>
+      </c>
+      <c r="G19" s="5" t="str">
         <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!G19,")")</f>
         <v>(0.5)</v>
       </c>
-      <c r="H19" s="9" t="str">
+      <c r="H19" s="5" t="str">
         <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!H19,")")</f>
         <v>(0.43)</v>
       </c>
-      <c r="I19" s="9" t="str">
+      <c r="I19" s="5" t="str">
         <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!I19,")")</f>
         <v>(0.46)</v>
       </c>
-      <c r="J19" s="9" t="str">
+      <c r="J19" s="5" t="str">
         <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!J19,")")</f>
-        <v>(1.63)</v>
-      </c>
-      <c r="K19" s="9" t="str">
+        <v>(1.78)</v>
+      </c>
+      <c r="K19" s="5" t="str">
         <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!K19,")")</f>
         <v>(0.49)</v>
       </c>
-      <c r="L19" s="9" t="str">
+      <c r="L19" s="5" t="str">
         <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!L19,")")</f>
         <v>(0.43)</v>
       </c>
-      <c r="M19" s="9" t="str">
+      <c r="M19" s="5" t="str">
         <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!M19,")")</f>
         <v>(0.35)</v>
       </c>
-      <c r="N19" s="9" t="str">
+      <c r="N19" s="5" t="str">
         <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!N19,")")</f>
         <v>(0.34)</v>
       </c>
-      <c r="O19" s="10" t="str">
+      <c r="O19" s="6" t="str">
         <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!W19,")")</f>
-        <v>(203.79)</v>
+        <v>(206.01)</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" s="3"/>
-      <c r="B20" s="4" t="s">
+      <c r="A20" s="8"/>
+      <c r="B20" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="D20" s="6">
+      <c r="C20" s="3">
+        <f>'Sample means of evaluation samp'!C20</f>
+        <v>0.74</v>
+      </c>
+      <c r="D20" s="3">
+        <f>'Sample means of evaluation samp'!D20</f>
+        <v>0.26</v>
+      </c>
+      <c r="E20" s="3">
+        <f>'Sample means of evaluation samp'!E20</f>
         <v>0</v>
       </c>
-      <c r="E20" s="6">
-        <v>0</v>
-      </c>
-      <c r="F20" s="6">
-        <v>37.06</v>
-      </c>
-      <c r="G20" s="6">
+      <c r="F20" s="3">
+        <f>'Sample means of evaluation samp'!F20</f>
+        <v>37.299999999999997</v>
+      </c>
+      <c r="G20" s="3">
+        <f>'Sample means of evaluation samp'!G20</f>
         <v>0.44</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H20" s="3">
+        <f>'Sample means of evaluation samp'!H20</f>
         <v>0.2</v>
       </c>
-      <c r="I20" s="6">
+      <c r="I20" s="3">
+        <f>'Sample means of evaluation samp'!I20</f>
         <v>0.71</v>
       </c>
-      <c r="J20" s="6">
+      <c r="J20" s="3">
+        <f>'Sample means of evaluation samp'!J20</f>
         <v>2.88</v>
       </c>
-      <c r="K20" s="6">
-        <v>0.36</v>
-      </c>
-      <c r="L20" s="6">
+      <c r="K20" s="3">
+        <f>'Sample means of evaluation samp'!K20</f>
+        <v>0.37</v>
+      </c>
+      <c r="L20" s="3">
+        <f>'Sample means of evaluation samp'!L20</f>
         <v>0.28000000000000003</v>
       </c>
-      <c r="M20" s="6">
-        <v>0.16</v>
-      </c>
-      <c r="N20" s="6">
+      <c r="M20" s="3">
+        <f>'Sample means of evaluation samp'!M20</f>
+        <v>0.15</v>
+      </c>
+      <c r="N20" s="3">
+        <f>'Sample means of evaluation samp'!N20</f>
         <v>0.14000000000000001</v>
       </c>
-      <c r="O20" s="7">
-        <v>378.33</v>
+      <c r="O20" s="4">
+        <f>'Sample means of evaluation samp'!W20</f>
+        <v>425.9</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" s="3"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="8" t="str">
+      <c r="A21" s="8"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="5" t="str">
         <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!C21,")")</f>
-        <v>(0.1)</v>
-      </c>
-      <c r="D21" s="9" t="str">
+        <v>(0.44)</v>
+      </c>
+      <c r="D21" s="5" t="str">
         <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!D21,")")</f>
-        <v>(0)</v>
-      </c>
-      <c r="E21" s="9" t="str">
+        <v>(0.44)</v>
+      </c>
+      <c r="E21" s="5" t="str">
         <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!E21,")")</f>
         <v>(0)</v>
       </c>
-      <c r="F21" s="9" t="str">
+      <c r="F21" s="5" t="str">
         <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!F21,")")</f>
-        <v>(12)</v>
-      </c>
-      <c r="G21" s="9" t="str">
+        <v>(12.37)</v>
+      </c>
+      <c r="G21" s="5" t="str">
         <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!G21,")")</f>
         <v>(0.5)</v>
       </c>
-      <c r="H21" s="9" t="str">
+      <c r="H21" s="5" t="str">
         <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!H21,")")</f>
         <v>(0.4)</v>
       </c>
-      <c r="I21" s="9" t="str">
+      <c r="I21" s="5" t="str">
         <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!I21,")")</f>
         <v>(0.46)</v>
       </c>
-      <c r="J21" s="9" t="str">
+      <c r="J21" s="5" t="str">
         <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!J21,")")</f>
         <v>(1.82)</v>
       </c>
-      <c r="K21" s="9" t="str">
+      <c r="K21" s="5" t="str">
         <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!K21,")")</f>
         <v>(0.48)</v>
       </c>
-      <c r="L21" s="9" t="str">
+      <c r="L21" s="5" t="str">
         <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!L21,")")</f>
         <v>(0.45)</v>
       </c>
-      <c r="M21" s="9" t="str">
+      <c r="M21" s="5" t="str">
         <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!M21,")")</f>
-        <v>(0.37)</v>
-      </c>
-      <c r="N21" s="9" t="str">
+        <v>(0.36)</v>
+      </c>
+      <c r="N21" s="5" t="str">
         <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!N21,")")</f>
         <v>(0.35)</v>
       </c>
-      <c r="O21" s="10" t="str">
+      <c r="O21" s="6" t="str">
         <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!W21,")")</f>
-        <v>(176.08)</v>
+        <v>(178.12)</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="3">
+        <f>'Sample means of evaluation samp'!C22</f>
+        <v>0.69</v>
+      </c>
+      <c r="D22" s="3">
+        <f>'Sample means of evaluation samp'!D22</f>
+        <v>0.3</v>
+      </c>
+      <c r="E22" s="3">
+        <f>'Sample means of evaluation samp'!E22</f>
+        <v>0.02</v>
+      </c>
+      <c r="F22" s="3">
+        <f>'Sample means of evaluation samp'!F22</f>
+        <v>39.24</v>
+      </c>
+      <c r="G22" s="3">
+        <f>'Sample means of evaluation samp'!G22</f>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H22" s="3">
+        <f>'Sample means of evaluation samp'!H22</f>
+        <v>0.09</v>
+      </c>
+      <c r="I22" s="3">
+        <f>'Sample means of evaluation samp'!I22</f>
+        <v>0.64</v>
+      </c>
+      <c r="J22" s="3">
+        <f>'Sample means of evaluation samp'!J22</f>
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="K22" s="3">
+        <f>'Sample means of evaluation samp'!K22</f>
+        <v>0.39</v>
+      </c>
+      <c r="L22" s="3">
+        <f>'Sample means of evaluation samp'!L22</f>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M22" s="3">
+        <f>'Sample means of evaluation samp'!M22</f>
+        <v>0.21</v>
+      </c>
+      <c r="N22" s="3">
+        <f>'Sample means of evaluation samp'!N22</f>
+        <v>0.21</v>
+      </c>
+      <c r="O22" s="4">
+        <f>'Sample means of evaluation samp'!W22</f>
+        <v>471.45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" s="8"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="5" t="str">
+        <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!C23,")")</f>
+        <v>(0.46)</v>
+      </c>
+      <c r="D23" s="5" t="str">
+        <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!D23,")")</f>
+        <v>(0.46)</v>
+      </c>
+      <c r="E23" s="5" t="str">
+        <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!E23,")")</f>
+        <v>(0.13)</v>
+      </c>
+      <c r="F23" s="5" t="str">
+        <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!F23,")")</f>
+        <v>(11.38)</v>
+      </c>
+      <c r="G23" s="5" t="str">
+        <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!G23,")")</f>
+        <v>(0.45)</v>
+      </c>
+      <c r="H23" s="5" t="str">
+        <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!H23,")")</f>
+        <v>(0.28)</v>
+      </c>
+      <c r="I23" s="5" t="str">
+        <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!I23,")")</f>
+        <v>(0.48)</v>
+      </c>
+      <c r="J23" s="5" t="str">
+        <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!J23,")")</f>
+        <v>(1.69)</v>
+      </c>
+      <c r="K23" s="5" t="str">
+        <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!K23,")")</f>
+        <v>(0.49)</v>
+      </c>
+      <c r="L23" s="5" t="str">
+        <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!L23,")")</f>
+        <v>(0.34)</v>
+      </c>
+      <c r="M23" s="5" t="str">
+        <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!M23,")")</f>
+        <v>(0.41)</v>
+      </c>
+      <c r="N23" s="5" t="str">
+        <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!N23,")")</f>
+        <v>(0.4)</v>
+      </c>
+      <c r="O23" s="6" t="str">
+        <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!W23,")")</f>
+        <v>(233.2)</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" s="8"/>
+      <c r="B24" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="3">
+        <f>'Sample means of evaluation samp'!C24</f>
+        <v>0.5</v>
+      </c>
+      <c r="D24" s="3">
+        <f>'Sample means of evaluation samp'!D24</f>
+        <v>0.48</v>
+      </c>
+      <c r="E24" s="3">
+        <f>'Sample means of evaluation samp'!E24</f>
+        <v>0.02</v>
+      </c>
+      <c r="F24" s="3">
+        <f>'Sample means of evaluation samp'!F24</f>
+        <v>40.299999999999997</v>
+      </c>
+      <c r="G24" s="3">
+        <f>'Sample means of evaluation samp'!G24</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H24" s="3">
+        <f>'Sample means of evaluation samp'!H24</f>
+        <v>0.13</v>
+      </c>
+      <c r="I24" s="3">
+        <f>'Sample means of evaluation samp'!I24</f>
+        <v>0.52</v>
+      </c>
+      <c r="J24" s="3">
+        <f>'Sample means of evaluation samp'!J24</f>
+        <v>2.31</v>
+      </c>
+      <c r="K24" s="3">
+        <f>'Sample means of evaluation samp'!K24</f>
+        <v>0.5</v>
+      </c>
+      <c r="L24" s="3">
+        <f>'Sample means of evaluation samp'!L24</f>
+        <v>0.24</v>
+      </c>
+      <c r="M24" s="3">
+        <f>'Sample means of evaluation samp'!M24</f>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="N24" s="3">
+        <f>'Sample means of evaluation samp'!N24</f>
+        <v>0.09</v>
+      </c>
+      <c r="O24" s="4">
+        <f>'Sample means of evaluation samp'!W24</f>
+        <v>377.12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" s="8"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="5" t="str">
+        <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!C25,")")</f>
+        <v>(0.5)</v>
+      </c>
+      <c r="D25" s="5" t="str">
+        <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!D25,")")</f>
+        <v>(0.5)</v>
+      </c>
+      <c r="E25" s="5" t="str">
+        <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!E25,")")</f>
+        <v>(0.13)</v>
+      </c>
+      <c r="F25" s="5" t="str">
+        <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!F25,")")</f>
+        <v>(11.85)</v>
+      </c>
+      <c r="G25" s="5" t="str">
+        <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!G25,")")</f>
+        <v>(0.45)</v>
+      </c>
+      <c r="H25" s="5" t="str">
+        <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!H25,")")</f>
+        <v>(0.33)</v>
+      </c>
+      <c r="I25" s="5" t="str">
+        <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!I25,")")</f>
+        <v>(0.5)</v>
+      </c>
+      <c r="J25" s="5" t="str">
+        <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!J25,")")</f>
+        <v>(1.48)</v>
+      </c>
+      <c r="K25" s="5" t="str">
+        <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!K25,")")</f>
+        <v>(0.5)</v>
+      </c>
+      <c r="L25" s="5" t="str">
+        <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!L25,")")</f>
+        <v>(0.43)</v>
+      </c>
+      <c r="M25" s="5" t="str">
+        <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!M25,")")</f>
+        <v>(0.35)</v>
+      </c>
+      <c r="N25" s="5" t="str">
+        <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!N25,")")</f>
+        <v>(0.29)</v>
+      </c>
+      <c r="O25" s="6" t="str">
+        <f>_xlfn.CONCAT("(",'Sample means of evaluation samp'!W25,")")</f>
+        <v>(149.71)</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="18">
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="B20:B21"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B18:B19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
